--- a/Pascal_Matrix/Pascal_Matrix.xlsx
+++ b/Pascal_Matrix/Pascal_Matrix.xlsx
@@ -45,13 +45,24 @@
     <numFmt numFmtId="164" formatCode="0.000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -86,6 +97,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -249,6 +278,9 @@
                 <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -286,6 +318,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -301,11 +336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411892768"/>
-        <c:axId val="411900216"/>
+        <c:axId val="124757016"/>
+        <c:axId val="124758584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411892768"/>
+        <c:axId val="124757016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,12 +454,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411900216"/>
+        <c:crossAx val="124758584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411900216"/>
+        <c:axId val="124758584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,7 +578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411892768"/>
+        <c:crossAx val="124757016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -736,6 +771,9 @@
                 <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -774,6 +812,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.7334695031415699E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.21072510192743E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,11 +829,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329872760"/>
-        <c:axId val="329872368"/>
+        <c:axId val="124758976"/>
+        <c:axId val="124759368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329872760"/>
+        <c:axId val="124758976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,12 +947,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329872368"/>
+        <c:crossAx val="124759368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329872368"/>
+        <c:axId val="124759368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329872760"/>
+        <c:crossAx val="124758976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1223,6 +1264,9 @@
                 <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1261,6 +1305,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.52697632316289E-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5536749664590799E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,11 +1322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475484648"/>
-        <c:axId val="475490136"/>
+        <c:axId val="126419208"/>
+        <c:axId val="126412936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475484648"/>
+        <c:axId val="126419208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,12 +1440,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475490136"/>
+        <c:crossAx val="126412936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475490136"/>
+        <c:axId val="126412936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475484648"/>
+        <c:crossAx val="126419208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1710,6 +1757,9 @@
                 <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1748,6 +1798,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.07118203196421E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.13989997996277E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,11 +1815,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475486608"/>
-        <c:axId val="475489744"/>
+        <c:axId val="126412544"/>
+        <c:axId val="126414896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475486608"/>
+        <c:axId val="126412544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,12 +1933,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475489744"/>
+        <c:crossAx val="126414896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475489744"/>
+        <c:axId val="126414896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475486608"/>
+        <c:crossAx val="126412544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2188,6 +2241,9 @@
                 <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2226,6 +2282,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.8129418773210595E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0897195085467499E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,11 +2299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411899432"/>
-        <c:axId val="411888488"/>
+        <c:axId val="126417640"/>
+        <c:axId val="126413328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411899432"/>
+        <c:axId val="126417640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,12 +2424,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411888488"/>
+        <c:crossAx val="126413328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411888488"/>
+        <c:axId val="126413328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411899432"/>
+        <c:crossAx val="126417640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2677,6 +2736,9 @@
                 <c:pt idx="9">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2715,6 +2777,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.8129418773210595E-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0897195085467499E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,11 +2794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410579392"/>
-        <c:axId val="410585664"/>
+        <c:axId val="126418032"/>
+        <c:axId val="126415288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410579392"/>
+        <c:axId val="126418032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,12 +2912,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410585664"/>
+        <c:crossAx val="126415288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410585664"/>
+        <c:axId val="126415288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +3031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410579392"/>
+        <c:crossAx val="126418032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6825,8 +6890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6842,259 +6907,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>2.55351295663786E-15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>6.6613381477509304E-16</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>1.4432899320127E-15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>1.6653345369377301E-15</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>3.88578058618804E-16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>4.9960036108132005E-16</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <v>4.9960036108132005E-16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="10">
         <v>1.4876988529977E-14</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
         <v>6.4392935428259E-15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="10">
         <v>8.8817841970012504E-16</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="10">
         <v>1.4988010832439599E-15</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="10">
         <v>1.4988010832439599E-15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="10">
         <v>1.2656542480726699E-14</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="10">
         <v>6.4392935428259E-15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="10">
         <v>6.3837823915946501E-15</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="10">
         <v>5.7731597280508101E-15</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="10">
         <v>5.7731597280508101E-15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="10">
         <v>9.1482377229112899E-14</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="10">
         <v>8.4154905266586803E-14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="10">
         <v>1.8957058145474501E-14</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="10">
         <v>1.8957058145474501E-14</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="10">
         <v>1.8957058145474501E-14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="10">
         <v>4.0245584642661899E-13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>2.56017429478561E-13</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>4.7378767575878499E-14</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="10">
         <v>2.8865798640254001E-14</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="10">
         <v>2.8865798640254001E-14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="10">
         <v>1.1317613513028799E-12</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="10">
         <v>3.87245790989254E-13</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="10">
         <v>2.8421709430404002E-13</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="10">
         <v>2.8826940834392099E-13</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="10">
         <v>2.8826940834392099E-13</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="10">
         <v>9.9695807165289807E-12</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="10">
         <v>1.2374323787867E-11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="10">
         <v>8.8423712796270502E-13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="10">
         <v>1.13697939951862E-12</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="10">
         <v>1.13697939951862E-12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="10">
         <v>3.2735480992585001E-11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="10">
         <v>1.9032331266544101E-11</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="10">
         <v>4.3453574072316298E-12</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="10">
         <v>1.02570729687556E-11</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="10">
         <v>1.02570729687556E-11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="10">
         <v>8.7334695031415699E-11</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="10">
         <v>1.52697632316289E-10</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="10">
         <v>1.07118203196421E-11</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="10">
         <v>6.8129418773210595E-11</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="10">
         <v>6.8129418773210595E-11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4.21072510192743E-10</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.5536749664590799E-10</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1.13989997996277E-10</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2.0897195085467499E-10</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2.0897195085467499E-10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pascal_Matrix/Pascal_Matrix.xlsx
+++ b/Pascal_Matrix/Pascal_Matrix.xlsx
@@ -336,11 +336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124757016"/>
-        <c:axId val="124758584"/>
+        <c:axId val="280353696"/>
+        <c:axId val="282052400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124757016"/>
+        <c:axId val="280353696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,12 +454,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124758584"/>
+        <c:crossAx val="282052400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124758584"/>
+        <c:axId val="282052400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124757016"/>
+        <c:crossAx val="280353696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -829,11 +829,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124758976"/>
-        <c:axId val="124759368"/>
+        <c:axId val="282052792"/>
+        <c:axId val="282054360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124758976"/>
+        <c:axId val="282052792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,12 +947,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124759368"/>
+        <c:crossAx val="282054360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124759368"/>
+        <c:axId val="282054360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124758976"/>
+        <c:crossAx val="282052792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1322,11 +1322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126419208"/>
-        <c:axId val="126412936"/>
+        <c:axId val="282048872"/>
+        <c:axId val="282053184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126419208"/>
+        <c:axId val="282048872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,12 +1440,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126412936"/>
+        <c:crossAx val="282053184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126412936"/>
+        <c:axId val="282053184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126419208"/>
+        <c:crossAx val="282048872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1815,11 +1815,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126412544"/>
-        <c:axId val="126414896"/>
+        <c:axId val="282052008"/>
+        <c:axId val="282053968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126412544"/>
+        <c:axId val="282052008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,12 +1933,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126414896"/>
+        <c:crossAx val="282053968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126414896"/>
+        <c:axId val="282053968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126412544"/>
+        <c:crossAx val="282052008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2299,11 +2299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126417640"/>
-        <c:axId val="126413328"/>
+        <c:axId val="282055536"/>
+        <c:axId val="282050832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126417640"/>
+        <c:axId val="282055536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,12 +2424,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126413328"/>
+        <c:crossAx val="282050832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126413328"/>
+        <c:axId val="282050832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126417640"/>
+        <c:crossAx val="282055536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2794,11 +2794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126418032"/>
-        <c:axId val="126415288"/>
+        <c:axId val="282048480"/>
+        <c:axId val="282049264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126418032"/>
+        <c:axId val="282048480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,12 +2912,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126415288"/>
+        <c:crossAx val="282049264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126415288"/>
+        <c:axId val="282049264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126418032"/>
+        <c:crossAx val="282048480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6890,8 +6890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
